--- a/data/pca/factorExposure/factorExposure_2018-01-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01090505515774181</v>
+        <v>-0.006793692825111911</v>
       </c>
       <c r="C2">
-        <v>-0.005712436177275121</v>
+        <v>0.03138821873495596</v>
       </c>
       <c r="D2">
-        <v>-0.02211031647768217</v>
+        <v>-0.02727578923979777</v>
       </c>
       <c r="E2">
-        <v>0.04887074398624278</v>
+        <v>-0.02217477666713885</v>
       </c>
       <c r="F2">
-        <v>-0.05144566161895129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03920537755319037</v>
+      </c>
+      <c r="G2">
+        <v>-0.003751122146950557</v>
+      </c>
+      <c r="H2">
+        <v>0.01579991861525605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0628859745495324</v>
+        <v>-0.05701760531644839</v>
       </c>
       <c r="C3">
-        <v>0.003408416934961943</v>
+        <v>0.08906550543790309</v>
       </c>
       <c r="D3">
-        <v>0.02920250522124859</v>
+        <v>-0.01170960194215961</v>
       </c>
       <c r="E3">
-        <v>0.1967149999721696</v>
+        <v>-0.06714203592497613</v>
       </c>
       <c r="F3">
-        <v>-0.2165763787974326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.1073042414930459</v>
+      </c>
+      <c r="G3">
+        <v>-0.05335138559936047</v>
+      </c>
+      <c r="H3">
+        <v>0.04208783507276643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03631643206510392</v>
+        <v>-0.04348212802321119</v>
       </c>
       <c r="C4">
-        <v>0.01509945462711515</v>
+        <v>0.05945170347272651</v>
       </c>
       <c r="D4">
-        <v>-0.03036525408225935</v>
+        <v>-0.02081846246928926</v>
       </c>
       <c r="E4">
-        <v>0.01035570124869017</v>
+        <v>0.0006667937719159833</v>
       </c>
       <c r="F4">
-        <v>-0.05427176132916984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03506976878542565</v>
+      </c>
+      <c r="G4">
+        <v>-0.03832488051416195</v>
+      </c>
+      <c r="H4">
+        <v>-0.009149658838695318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.06110709130453507</v>
+        <v>-0.02632541867865545</v>
       </c>
       <c r="C6">
-        <v>0.003454485127258045</v>
+        <v>0.05734643640135737</v>
       </c>
       <c r="D6">
-        <v>-0.03885525277220848</v>
+        <v>-0.0148740817805623</v>
       </c>
       <c r="E6">
-        <v>0.007981578635212568</v>
+        <v>0.001704359287484808</v>
       </c>
       <c r="F6">
-        <v>-0.03604867949352539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01646852258277418</v>
+      </c>
+      <c r="G6">
+        <v>-0.01829377487522497</v>
+      </c>
+      <c r="H6">
+        <v>-0.001131260226195785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02738285168768311</v>
+        <v>-0.01061495631260314</v>
       </c>
       <c r="C7">
-        <v>0.06976493135237212</v>
+        <v>0.03154778048771115</v>
       </c>
       <c r="D7">
-        <v>-0.002258830747097026</v>
+        <v>-0.01202060672043759</v>
       </c>
       <c r="E7">
-        <v>0.005595662950397358</v>
+        <v>0.01617624954528481</v>
       </c>
       <c r="F7">
-        <v>-0.01265277304334947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01837234537802611</v>
+      </c>
+      <c r="G7">
+        <v>-0.06928322922667737</v>
+      </c>
+      <c r="H7">
+        <v>0.02876549428916596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01584760247598276</v>
+        <v>0.00499669597852023</v>
       </c>
       <c r="C8">
-        <v>0.009978223336652773</v>
+        <v>0.004900732251599111</v>
       </c>
       <c r="D8">
-        <v>-0.02227776137035184</v>
+        <v>-0.001897634106032319</v>
       </c>
       <c r="E8">
-        <v>0.00877049021710854</v>
+        <v>-0.007366366899696677</v>
       </c>
       <c r="F8">
-        <v>-0.04944865161928651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02648687548325959</v>
+      </c>
+      <c r="G8">
+        <v>-0.02250966119479793</v>
+      </c>
+      <c r="H8">
+        <v>-0.008686217038043223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02783965702415582</v>
+        <v>-0.02242901009253538</v>
       </c>
       <c r="C9">
-        <v>0.01209783854087278</v>
+        <v>0.04128064455267726</v>
       </c>
       <c r="D9">
-        <v>-0.02560180728462711</v>
+        <v>-0.01448607016686934</v>
       </c>
       <c r="E9">
-        <v>0.03607264163763978</v>
+        <v>0.002085301663521672</v>
       </c>
       <c r="F9">
-        <v>-0.04522693466209476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0259647712869122</v>
+      </c>
+      <c r="G9">
+        <v>-0.02613011922983051</v>
+      </c>
+      <c r="H9">
+        <v>0.01408389979524388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04993494321893597</v>
+        <v>-0.1070028500627199</v>
       </c>
       <c r="C10">
-        <v>-0.01292320271690067</v>
+        <v>-0.1727859271602062</v>
       </c>
       <c r="D10">
-        <v>0.1639197272263834</v>
+        <v>0.02038973698038094</v>
       </c>
       <c r="E10">
-        <v>0.05336035085110118</v>
+        <v>-0.0211633011192775</v>
       </c>
       <c r="F10">
-        <v>0.009669173507664818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0119281877536442</v>
+      </c>
+      <c r="G10">
+        <v>-0.02483508866198688</v>
+      </c>
+      <c r="H10">
+        <v>0.03986781943173232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02803336251507584</v>
+        <v>-0.02632561287737591</v>
       </c>
       <c r="C11">
-        <v>-0.00309268699098473</v>
+        <v>0.05258538691989784</v>
       </c>
       <c r="D11">
-        <v>-0.0401909370625143</v>
+        <v>-0.0002600375687566819</v>
       </c>
       <c r="E11">
-        <v>2.881283143319306e-06</v>
+        <v>0.007000867983213676</v>
       </c>
       <c r="F11">
-        <v>-0.02124059947599893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03444566277685705</v>
+      </c>
+      <c r="G11">
+        <v>-0.005579635438996467</v>
+      </c>
+      <c r="H11">
+        <v>0.005511986688931613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03634013114743127</v>
+        <v>-0.0268259460722876</v>
       </c>
       <c r="C12">
-        <v>0.003063727238748021</v>
+        <v>0.04639631977885445</v>
       </c>
       <c r="D12">
-        <v>-0.03860866323751609</v>
+        <v>-0.00463535477785285</v>
       </c>
       <c r="E12">
-        <v>-0.01433735288783041</v>
+        <v>0.01210510228774195</v>
       </c>
       <c r="F12">
-        <v>-0.003528049203721326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01324222320148644</v>
+      </c>
+      <c r="G12">
+        <v>-0.0139346102689151</v>
+      </c>
+      <c r="H12">
+        <v>0.005509820929792725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01499112016839386</v>
+        <v>-0.008816521848384044</v>
       </c>
       <c r="C13">
-        <v>-0.001634140035176068</v>
+        <v>0.02864031042837536</v>
       </c>
       <c r="D13">
-        <v>-0.0132456097920602</v>
+        <v>-0.02303680212727781</v>
       </c>
       <c r="E13">
-        <v>0.02723721815697055</v>
+        <v>-0.01415687526039366</v>
       </c>
       <c r="F13">
-        <v>-0.05553828362716421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.04266943038507635</v>
+      </c>
+      <c r="G13">
+        <v>-0.02100217072249992</v>
+      </c>
+      <c r="H13">
+        <v>0.0007899296810317841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01468077819240539</v>
+        <v>-0.003793677337417147</v>
       </c>
       <c r="C14">
-        <v>0.01457359463673455</v>
+        <v>0.02122621927146504</v>
       </c>
       <c r="D14">
-        <v>-0.007554520978497057</v>
+        <v>-0.007727449372650864</v>
       </c>
       <c r="E14">
-        <v>0.005919273416694383</v>
+        <v>0.006737665179820765</v>
       </c>
       <c r="F14">
-        <v>-0.04545241544071062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01214454676596229</v>
+      </c>
+      <c r="G14">
+        <v>-0.03357742639238738</v>
+      </c>
+      <c r="H14">
+        <v>-0.0008026436223470903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02619522782408044</v>
+        <v>-0.02279266704093445</v>
       </c>
       <c r="C16">
-        <v>0.002945859911310052</v>
+        <v>0.04001686744039921</v>
       </c>
       <c r="D16">
-        <v>-0.04042293963464109</v>
+        <v>-5.82988212903229e-05</v>
       </c>
       <c r="E16">
-        <v>0.00158671675471237</v>
+        <v>0.003639823755620973</v>
       </c>
       <c r="F16">
-        <v>-0.02371507609809513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02252947179880047</v>
+      </c>
+      <c r="G16">
+        <v>-0.0109832929932922</v>
+      </c>
+      <c r="H16">
+        <v>0.004140901527546864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02944307850196772</v>
+        <v>-0.02111929515695926</v>
       </c>
       <c r="C19">
-        <v>0.0005345819641213495</v>
+        <v>0.04890291531811397</v>
       </c>
       <c r="D19">
-        <v>-0.03160271944711283</v>
+        <v>-0.01343144449554447</v>
       </c>
       <c r="E19">
-        <v>0.01913562977619263</v>
+        <v>-0.02843347022237813</v>
       </c>
       <c r="F19">
-        <v>-0.08360255517497794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.05708149927405021</v>
+      </c>
+      <c r="G19">
+        <v>-0.0322231151885081</v>
+      </c>
+      <c r="H19">
+        <v>-0.006597718731072924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001548004028189288</v>
+        <v>-0.005167869599605555</v>
       </c>
       <c r="C20">
-        <v>0.003900624327414278</v>
+        <v>0.02722122831362072</v>
       </c>
       <c r="D20">
-        <v>-0.001208347941364588</v>
+        <v>-0.01195468870751381</v>
       </c>
       <c r="E20">
-        <v>0.02400973825290283</v>
+        <v>-0.01668511878735166</v>
       </c>
       <c r="F20">
-        <v>-0.02938863869687657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02058360840045987</v>
+      </c>
+      <c r="G20">
+        <v>-0.02129702763339165</v>
+      </c>
+      <c r="H20">
+        <v>0.002571368967802162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0359228817099605</v>
+        <v>-0.006584659451907779</v>
       </c>
       <c r="C21">
-        <v>0.0206577025623063</v>
+        <v>0.02991986890244074</v>
       </c>
       <c r="D21">
-        <v>-0.01702589157771758</v>
+        <v>-0.01507541836402838</v>
       </c>
       <c r="E21">
-        <v>0.01484538017285271</v>
+        <v>-0.02067810508125975</v>
       </c>
       <c r="F21">
-        <v>-0.03388753730667524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03658623551418663</v>
+      </c>
+      <c r="G21">
+        <v>-0.04059730094985887</v>
+      </c>
+      <c r="H21">
+        <v>0.01474007450317204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02477959914700207</v>
+        <v>-0.01831788717252535</v>
       </c>
       <c r="C24">
-        <v>0.0004681554797414354</v>
+        <v>0.04312109664426905</v>
       </c>
       <c r="D24">
-        <v>-0.03199128480401316</v>
+        <v>-0.005202914949191322</v>
       </c>
       <c r="E24">
-        <v>0.001810323026371596</v>
+        <v>0.009546740615211161</v>
       </c>
       <c r="F24">
-        <v>-0.0163000826898965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02774738336575305</v>
+      </c>
+      <c r="G24">
+        <v>-0.006571738114947269</v>
+      </c>
+      <c r="H24">
+        <v>0.01116407393669313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03709214303122298</v>
+        <v>-0.03494325351232645</v>
       </c>
       <c r="C25">
-        <v>-0.001118658882749441</v>
+        <v>0.05288631653575907</v>
       </c>
       <c r="D25">
-        <v>-0.0313296044357808</v>
+        <v>-0.008989971506556815</v>
       </c>
       <c r="E25">
-        <v>0.01376726102824269</v>
+        <v>0.01691580900527997</v>
       </c>
       <c r="F25">
-        <v>-0.02887867977431818</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02410132394753168</v>
+      </c>
+      <c r="G25">
+        <v>-0.0159717272920791</v>
+      </c>
+      <c r="H25">
+        <v>0.00342713706670663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.001188757582186338</v>
+        <v>-0.0009485235544980634</v>
       </c>
       <c r="C26">
-        <v>0.009617117397932888</v>
+        <v>0.003264905253109711</v>
       </c>
       <c r="D26">
-        <v>-0.007459096750709875</v>
+        <v>-0.02329008095288511</v>
       </c>
       <c r="E26">
-        <v>0.02860652871402065</v>
+        <v>-0.003482551840090455</v>
       </c>
       <c r="F26">
-        <v>-0.01952237048475678</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01393715127139295</v>
+      </c>
+      <c r="G26">
+        <v>-0.01828820717286796</v>
+      </c>
+      <c r="H26">
+        <v>0.005972846920652601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0009516668838700411</v>
+        <v>-0.0007009737615907224</v>
       </c>
       <c r="C27">
-        <v>0.0006829236842791447</v>
+        <v>-0.0007496894655511213</v>
       </c>
       <c r="D27">
-        <v>0.005534954864359489</v>
+        <v>0.0006594086979139919</v>
       </c>
       <c r="E27">
-        <v>-0.01140878125079919</v>
+        <v>0.0001157623583992424</v>
       </c>
       <c r="F27">
-        <v>-0.01582673494851839</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.000730387585137336</v>
+      </c>
+      <c r="G27">
+        <v>-0.00431091759903557</v>
+      </c>
+      <c r="H27">
+        <v>-0.008751088841870524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08456569997969933</v>
+        <v>-0.1420263608278407</v>
       </c>
       <c r="C28">
-        <v>-0.02042148353645393</v>
+        <v>-0.2081008217304254</v>
       </c>
       <c r="D28">
-        <v>0.2373119714374692</v>
+        <v>0.01267270132112298</v>
       </c>
       <c r="E28">
-        <v>0.067374950375648</v>
+        <v>-0.01294095108337523</v>
       </c>
       <c r="F28">
-        <v>0.02379952315400505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01172610138631339</v>
+      </c>
+      <c r="G28">
+        <v>-0.04084650982377931</v>
+      </c>
+      <c r="H28">
+        <v>0.04037179167874384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01464194642450711</v>
+        <v>-0.008507230618529715</v>
       </c>
       <c r="C29">
-        <v>0.01101982233099284</v>
+        <v>0.01773867597969359</v>
       </c>
       <c r="D29">
-        <v>-0.007622591458708384</v>
+        <v>-0.006597102743529146</v>
       </c>
       <c r="E29">
-        <v>0.002990744618136376</v>
+        <v>0.005449059788233726</v>
       </c>
       <c r="F29">
-        <v>-0.0479175757468454</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.006990669819763968</v>
+      </c>
+      <c r="G29">
+        <v>-0.02923105526473978</v>
+      </c>
+      <c r="H29">
+        <v>-0.007539505504065346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0399412092597265</v>
+        <v>-0.03004648186251887</v>
       </c>
       <c r="C30">
-        <v>-0.04716338776938479</v>
+        <v>0.07599661301996305</v>
       </c>
       <c r="D30">
-        <v>-0.05565871092275448</v>
+        <v>-0.02559695702077714</v>
       </c>
       <c r="E30">
-        <v>0.02704002232409595</v>
+        <v>-0.01462781468592248</v>
       </c>
       <c r="F30">
-        <v>-0.08790382273753775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.05416367301525662</v>
+      </c>
+      <c r="G30">
+        <v>0.007368049614806369</v>
+      </c>
+      <c r="H30">
+        <v>-0.02356917269419732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04869062215859859</v>
+        <v>-0.03499831002290601</v>
       </c>
       <c r="C31">
-        <v>0.01056630761757602</v>
+        <v>0.02152955417866559</v>
       </c>
       <c r="D31">
-        <v>-0.01577834449284416</v>
+        <v>-0.001587619220388152</v>
       </c>
       <c r="E31">
-        <v>-0.008260785760700834</v>
+        <v>0.0124285919086969</v>
       </c>
       <c r="F31">
-        <v>-0.02853265240907549</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01799323435367534</v>
+      </c>
+      <c r="G31">
+        <v>-0.02349595030030298</v>
+      </c>
+      <c r="H31">
+        <v>0.004030727882292268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0001672104282858786</v>
+        <v>0.001366909486085593</v>
       </c>
       <c r="C32">
-        <v>0.02901435272587051</v>
+        <v>0.02672452072071408</v>
       </c>
       <c r="D32">
-        <v>-0.02552078101785237</v>
+        <v>0.005884810180302802</v>
       </c>
       <c r="E32">
-        <v>-0.01010642826939937</v>
+        <v>-0.0103346121048293</v>
       </c>
       <c r="F32">
-        <v>-0.06097371528736513</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.09203982604738088</v>
+      </c>
+      <c r="G32">
+        <v>-0.04435252103047449</v>
+      </c>
+      <c r="H32">
+        <v>-0.01836004026597913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03185529945064872</v>
+        <v>-0.02215985939987471</v>
       </c>
       <c r="C33">
-        <v>-0.02060780702408284</v>
+        <v>0.04989052493152523</v>
       </c>
       <c r="D33">
-        <v>-0.03159454415783264</v>
+        <v>-0.0127181819981061</v>
       </c>
       <c r="E33">
-        <v>0.03256955288566584</v>
+        <v>-0.01230488206944388</v>
       </c>
       <c r="F33">
-        <v>-0.04089753770643401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0327122461760583</v>
+      </c>
+      <c r="G33">
+        <v>-0.008845657354162687</v>
+      </c>
+      <c r="H33">
+        <v>0.01741638246213447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02724004437855931</v>
+        <v>-0.03576975801146558</v>
       </c>
       <c r="C34">
-        <v>0.01074511369104213</v>
+        <v>0.05480062135536671</v>
       </c>
       <c r="D34">
-        <v>-0.04067820710426684</v>
+        <v>0.007124773248849826</v>
       </c>
       <c r="E34">
-        <v>-0.001222621628354188</v>
+        <v>0.01779936662201986</v>
       </c>
       <c r="F34">
-        <v>-0.02777054930324781</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03048618794319383</v>
+      </c>
+      <c r="G34">
+        <v>-0.01982447083096514</v>
+      </c>
+      <c r="H34">
+        <v>0.007584890568262555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01092056974037693</v>
+        <v>-0.008579455064131335</v>
       </c>
       <c r="C36">
-        <v>0.005204896202474594</v>
+        <v>0.0004405113305504693</v>
       </c>
       <c r="D36">
-        <v>-0.0009037142082805208</v>
+        <v>-0.01025643086012613</v>
       </c>
       <c r="E36">
-        <v>0.008542115100383531</v>
+        <v>0.0003773469429218847</v>
       </c>
       <c r="F36">
-        <v>-0.02197865628872899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.007748927928319378</v>
+      </c>
+      <c r="G36">
+        <v>-0.01260897425302219</v>
+      </c>
+      <c r="H36">
+        <v>0.007902502031393871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0202423909853658</v>
+        <v>-0.02602330164035267</v>
       </c>
       <c r="C38">
-        <v>-0.003728163974360231</v>
+        <v>0.01994529041690872</v>
       </c>
       <c r="D38">
-        <v>-0.006283102128597071</v>
+        <v>0.008994400577181642</v>
       </c>
       <c r="E38">
-        <v>0.03110314273849316</v>
+        <v>0.004536659858324986</v>
       </c>
       <c r="F38">
-        <v>-0.04592111583989064</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01358402070100891</v>
+      </c>
+      <c r="G38">
+        <v>-0.01906256180163331</v>
+      </c>
+      <c r="H38">
+        <v>0.002725909317919972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01930497057418264</v>
+        <v>-0.01695220406676166</v>
       </c>
       <c r="C39">
-        <v>0.009018039726458834</v>
+        <v>0.08312810250315972</v>
       </c>
       <c r="D39">
-        <v>-0.06315292415199242</v>
+        <v>-0.01059173415229879</v>
       </c>
       <c r="E39">
-        <v>0.01303520895721874</v>
+        <v>-0.001229207541529384</v>
       </c>
       <c r="F39">
-        <v>-0.05825487044333325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05093739602944386</v>
+      </c>
+      <c r="G39">
+        <v>-0.009064531609701295</v>
+      </c>
+      <c r="H39">
+        <v>0.01050421949215814</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02700790569548555</v>
+        <v>-0.01765185483947363</v>
       </c>
       <c r="C40">
-        <v>-0.001336407250893234</v>
+        <v>0.02838663102431916</v>
       </c>
       <c r="D40">
-        <v>-0.04158374856532937</v>
+        <v>-0.0113877850871428</v>
       </c>
       <c r="E40">
-        <v>0.01784454247617814</v>
+        <v>-0.004471817491241075</v>
       </c>
       <c r="F40">
-        <v>-0.01633671951351259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03183956760178743</v>
+      </c>
+      <c r="G40">
+        <v>-0.00943722545962427</v>
+      </c>
+      <c r="H40">
+        <v>0.01513782602769555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009378282200414286</v>
+        <v>-0.01086681324363628</v>
       </c>
       <c r="C41">
-        <v>-0.001517182950745066</v>
+        <v>-0.007400202641847821</v>
       </c>
       <c r="D41">
-        <v>0.01004097914058205</v>
+        <v>-0.002615931355409729</v>
       </c>
       <c r="E41">
-        <v>0.01017698323130037</v>
+        <v>0.006986111721962134</v>
       </c>
       <c r="F41">
-        <v>-0.004660157937471265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003490995519422382</v>
+      </c>
+      <c r="G41">
+        <v>-0.005775367511142616</v>
+      </c>
+      <c r="H41">
+        <v>0.006757425596278061</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1972323711471057</v>
+        <v>-0.03984862911377001</v>
       </c>
       <c r="C42">
-        <v>-0.1538072630975663</v>
+        <v>0.09685763689268591</v>
       </c>
       <c r="D42">
-        <v>-0.2214450593501794</v>
+        <v>-0.116892080208908</v>
       </c>
       <c r="E42">
-        <v>0.5786072852534453</v>
+        <v>-0.0964129432907866</v>
       </c>
       <c r="F42">
-        <v>0.6958225225076502</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.2751444382840931</v>
+      </c>
+      <c r="G42">
+        <v>0.4356128417155384</v>
+      </c>
+      <c r="H42">
+        <v>0.8208388749607968</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01411304753059813</v>
+        <v>-0.02314274301209674</v>
       </c>
       <c r="C43">
-        <v>-0.004402477923810751</v>
+        <v>0.001150287145514485</v>
       </c>
       <c r="D43">
-        <v>0.00861472956514147</v>
+        <v>-0.002385666281813848</v>
       </c>
       <c r="E43">
-        <v>0.01457564212253181</v>
+        <v>0.003970667857775186</v>
       </c>
       <c r="F43">
-        <v>-0.0101303861944262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01152723518432403</v>
+      </c>
+      <c r="G43">
+        <v>-0.006103111277302619</v>
+      </c>
+      <c r="H43">
+        <v>0.0106260791043318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.008853184577987939</v>
+        <v>-0.007898117047650472</v>
       </c>
       <c r="C44">
-        <v>0.0116588466412497</v>
+        <v>0.04626237182417785</v>
       </c>
       <c r="D44">
-        <v>-0.01698589149091807</v>
+        <v>-0.00607804607645455</v>
       </c>
       <c r="E44">
-        <v>0.04384033594733699</v>
+        <v>-0.01339812208298644</v>
       </c>
       <c r="F44">
-        <v>-0.06256723484868573</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03630473423689105</v>
+      </c>
+      <c r="G44">
+        <v>-0.02299225352456073</v>
+      </c>
+      <c r="H44">
+        <v>0.02327372455797428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01396315148020108</v>
+        <v>0.002207333260606899</v>
       </c>
       <c r="C46">
-        <v>0.002955663364283156</v>
+        <v>0.01241672685422715</v>
       </c>
       <c r="D46">
-        <v>-0.03695903853991289</v>
+        <v>-0.01122686721802268</v>
       </c>
       <c r="E46">
-        <v>0.01712546886873596</v>
+        <v>0.004293298431236729</v>
       </c>
       <c r="F46">
-        <v>-0.06955346109168616</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.003733753617356656</v>
+      </c>
+      <c r="G46">
+        <v>-0.01959789550407759</v>
+      </c>
+      <c r="H46">
+        <v>-0.004160402396045908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07335281440698441</v>
+        <v>-0.05870886877953916</v>
       </c>
       <c r="C47">
-        <v>-0.005830811340696931</v>
+        <v>0.05490143398844981</v>
       </c>
       <c r="D47">
-        <v>-0.01934897270905145</v>
+        <v>0.006312423710294431</v>
       </c>
       <c r="E47">
-        <v>-0.0297502916408847</v>
+        <v>0.01388187306702245</v>
       </c>
       <c r="F47">
-        <v>0.000761179126753722</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.04955656957534999</v>
+      </c>
+      <c r="G47">
+        <v>-0.01986936399026331</v>
+      </c>
+      <c r="H47">
+        <v>-0.004915556149689991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02132636750596499</v>
+        <v>-0.01154693151491767</v>
       </c>
       <c r="C48">
-        <v>0.004024620725336872</v>
+        <v>0.006030389770085714</v>
       </c>
       <c r="D48">
-        <v>-0.004730626746323549</v>
+        <v>-0.000284184085008913</v>
       </c>
       <c r="E48">
-        <v>0.006788458757096486</v>
+        <v>0.005287294776672769</v>
       </c>
       <c r="F48">
-        <v>-0.02472817279507152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.007749471414408998</v>
+      </c>
+      <c r="G48">
+        <v>-0.01710978695444283</v>
+      </c>
+      <c r="H48">
+        <v>0.001848366188767409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08101297260999926</v>
+        <v>-0.06244010159464585</v>
       </c>
       <c r="C50">
-        <v>0.0225934011613959</v>
+        <v>0.05497222907236779</v>
       </c>
       <c r="D50">
-        <v>-0.03947252662128224</v>
+        <v>0.004992526995351294</v>
       </c>
       <c r="E50">
-        <v>-0.00574472061924001</v>
+        <v>0.01135531793957656</v>
       </c>
       <c r="F50">
-        <v>-0.02258996052703607</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.04006002170859538</v>
+      </c>
+      <c r="G50">
+        <v>-0.04445623107428228</v>
+      </c>
+      <c r="H50">
+        <v>0.008138778635355405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009485543602243409</v>
+        <v>-0.009516972039254258</v>
       </c>
       <c r="C51">
-        <v>0.006850062037799734</v>
+        <v>0.02303821142431169</v>
       </c>
       <c r="D51">
-        <v>0.01596351564295096</v>
+        <v>-0.008084744818363476</v>
       </c>
       <c r="E51">
-        <v>0.04655324195518103</v>
+        <v>-0.001606080961452249</v>
       </c>
       <c r="F51">
-        <v>-0.06133335054439504</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.04593656657733403</v>
+      </c>
+      <c r="G51">
+        <v>-0.02679601666911168</v>
+      </c>
+      <c r="H51">
+        <v>0.02174655732823209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1055946345158404</v>
+        <v>-0.08268272938578373</v>
       </c>
       <c r="C53">
-        <v>0.00543644266180198</v>
+        <v>0.08090557860539416</v>
       </c>
       <c r="D53">
-        <v>-0.04653375445983342</v>
+        <v>0.006981503840893252</v>
       </c>
       <c r="E53">
-        <v>-0.05478810488278679</v>
+        <v>0.03905085905428583</v>
       </c>
       <c r="F53">
-        <v>0.006707419650216001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06361251813795089</v>
+      </c>
+      <c r="G53">
+        <v>-0.02308154974244235</v>
+      </c>
+      <c r="H53">
+        <v>-0.0007408901055294052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02426499453282288</v>
+        <v>-0.02516864374345952</v>
       </c>
       <c r="C54">
-        <v>0.008080168574241731</v>
+        <v>-7.629259404231621e-05</v>
       </c>
       <c r="D54">
-        <v>0.001960031056760115</v>
+        <v>0.005393829296120208</v>
       </c>
       <c r="E54">
-        <v>-0.009894450319317896</v>
+        <v>-0.000416645451166338</v>
       </c>
       <c r="F54">
-        <v>-0.03600642103554869</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.008321968032372945</v>
+      </c>
+      <c r="G54">
+        <v>-0.02599735218771613</v>
+      </c>
+      <c r="H54">
+        <v>-0.001834078590714674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07756822720533775</v>
+        <v>-0.05924776995343237</v>
       </c>
       <c r="C55">
-        <v>-0.0005333596963343696</v>
+        <v>0.06964350623233242</v>
       </c>
       <c r="D55">
-        <v>-0.06322308383306574</v>
+        <v>0.005649514282184021</v>
       </c>
       <c r="E55">
-        <v>-0.03096724246315695</v>
+        <v>0.02815231796094324</v>
       </c>
       <c r="F55">
-        <v>0.008919651223479664</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.05911124231169981</v>
+      </c>
+      <c r="G55">
+        <v>-0.01136915084574385</v>
+      </c>
+      <c r="H55">
+        <v>-0.004662296950699958</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1458645197134174</v>
+        <v>-0.1266212739520784</v>
       </c>
       <c r="C56">
-        <v>-0.004334000215706927</v>
+        <v>0.1114652168647918</v>
       </c>
       <c r="D56">
-        <v>-0.06669104395118609</v>
+        <v>0.0157690578928803</v>
       </c>
       <c r="E56">
-        <v>-0.08017230078592183</v>
+        <v>0.04120675655085027</v>
       </c>
       <c r="F56">
-        <v>0.0329620505622141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1060853394854289</v>
+      </c>
+      <c r="G56">
+        <v>-0.007682724355959411</v>
+      </c>
+      <c r="H56">
+        <v>-0.0217758813022816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03432004314466205</v>
+        <v>-0.01457858432998763</v>
       </c>
       <c r="C57">
-        <v>-0.009341052525898952</v>
+        <v>0.01568648995436376</v>
       </c>
       <c r="D57">
-        <v>-0.01610356055681527</v>
+        <v>-0.02364195475274447</v>
       </c>
       <c r="E57">
-        <v>0.0485314855882072</v>
+        <v>-0.03149834596304277</v>
       </c>
       <c r="F57">
-        <v>-0.02676119490752269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02542485870716027</v>
+      </c>
+      <c r="G57">
+        <v>-0.02068708832882542</v>
+      </c>
+      <c r="H57">
+        <v>0.01101304369739904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1806674081824511</v>
+        <v>-0.07546576024732829</v>
       </c>
       <c r="C58">
-        <v>-0.1330201251035203</v>
+        <v>0.1165012547889558</v>
       </c>
       <c r="D58">
-        <v>-0.1565731846839937</v>
+        <v>-0.01769513440230107</v>
       </c>
       <c r="E58">
-        <v>0.4671753136449165</v>
+        <v>-0.9553906171748902</v>
       </c>
       <c r="F58">
-        <v>-0.5014779418986325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.1237359776407137</v>
+      </c>
+      <c r="G58">
+        <v>-0.103067100299595</v>
+      </c>
+      <c r="H58">
+        <v>-0.1143882028360424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08561553574573587</v>
+        <v>-0.1765402771312065</v>
       </c>
       <c r="C59">
-        <v>-0.03961617689691348</v>
+        <v>-0.1968706277386326</v>
       </c>
       <c r="D59">
-        <v>0.201934494902955</v>
+        <v>0.02070114278198634</v>
       </c>
       <c r="E59">
-        <v>0.05553202929374104</v>
+        <v>-0.01574486364843169</v>
       </c>
       <c r="F59">
-        <v>-0.03147658920170771</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01346390189996213</v>
+      </c>
+      <c r="G59">
+        <v>-0.01920170951473036</v>
+      </c>
+      <c r="H59">
+        <v>0.01243530357310358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1990885212405513</v>
+        <v>-0.2946428075732881</v>
       </c>
       <c r="C60">
-        <v>-0.04801712475652266</v>
+        <v>0.1116297567017862</v>
       </c>
       <c r="D60">
-        <v>0.03073119516045178</v>
+        <v>0.001875310782922703</v>
       </c>
       <c r="E60">
-        <v>0.08918074006113007</v>
+        <v>0.02488995599484763</v>
       </c>
       <c r="F60">
-        <v>-0.08692126642436344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.367673374264906</v>
+      </c>
+      <c r="G60">
+        <v>0.07978434681392936</v>
+      </c>
+      <c r="H60">
+        <v>0.01500211401627772</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02917058611972976</v>
+        <v>-0.02254611884601727</v>
       </c>
       <c r="C61">
-        <v>0.002925913714849892</v>
+        <v>0.06554242477583662</v>
       </c>
       <c r="D61">
-        <v>-0.05183312056929777</v>
+        <v>-0.003878773035811739</v>
       </c>
       <c r="E61">
-        <v>0.007657488840020803</v>
+        <v>0.003532985709262262</v>
       </c>
       <c r="F61">
-        <v>-0.03050160892543484</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03553989387073242</v>
+      </c>
+      <c r="G61">
+        <v>-0.01238590988677801</v>
+      </c>
+      <c r="H61">
+        <v>0.004027528712053958</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01349753281335551</v>
+        <v>-0.008342650266206335</v>
       </c>
       <c r="C63">
-        <v>0.00714993527350947</v>
+        <v>0.028639014635036</v>
       </c>
       <c r="D63">
-        <v>-0.0234932900380321</v>
+        <v>-0.007427524901451433</v>
       </c>
       <c r="E63">
-        <v>0.001964944377059195</v>
+        <v>0.01410141232252679</v>
       </c>
       <c r="F63">
-        <v>-0.01149070339422391</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0008994806384626337</v>
+      </c>
+      <c r="G63">
+        <v>-0.02148470922742958</v>
+      </c>
+      <c r="H63">
+        <v>-0.0008753402219925633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04634871266690133</v>
+        <v>-0.04207382811819717</v>
       </c>
       <c r="C64">
-        <v>0.0009090816901355786</v>
+        <v>0.03988102796897407</v>
       </c>
       <c r="D64">
-        <v>-0.02943965402265269</v>
+        <v>-0.003050470882589805</v>
       </c>
       <c r="E64">
-        <v>0.003005548498206064</v>
+        <v>0.01928418169085035</v>
       </c>
       <c r="F64">
-        <v>-0.02584176386503755</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01421272113080321</v>
+      </c>
+      <c r="G64">
+        <v>-0.005518142559356631</v>
+      </c>
+      <c r="H64">
+        <v>0.02361395018058408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06798171018876423</v>
+        <v>-0.07135056458770228</v>
       </c>
       <c r="C65">
-        <v>0.003499225386995984</v>
+        <v>0.08025202244920174</v>
       </c>
       <c r="D65">
-        <v>-0.04121381293325874</v>
+        <v>-0.01339480189684626</v>
       </c>
       <c r="E65">
-        <v>0.002760834636717972</v>
+        <v>0.009495879333060042</v>
       </c>
       <c r="F65">
-        <v>-0.03282049765033489</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.0361870838173383</v>
+      </c>
+      <c r="G65">
+        <v>-0.009424006078015143</v>
+      </c>
+      <c r="H65">
+        <v>-0.0114281469994769</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04499675144000737</v>
+        <v>-0.0359570196293799</v>
       </c>
       <c r="C66">
-        <v>-0.009336665415438103</v>
+        <v>0.1232584831582039</v>
       </c>
       <c r="D66">
-        <v>-0.0710523769536823</v>
+        <v>-0.009135033831492181</v>
       </c>
       <c r="E66">
-        <v>-0.02045183625933482</v>
+        <v>0.000591573205245871</v>
       </c>
       <c r="F66">
-        <v>-0.07373690095285701</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.0611763234325693</v>
+      </c>
+      <c r="G66">
+        <v>-0.006785158428037748</v>
+      </c>
+      <c r="H66">
+        <v>-0.01617410144552163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03500640203486351</v>
+        <v>-0.05031624670092694</v>
       </c>
       <c r="C67">
-        <v>-0.007482624548887847</v>
+        <v>0.02688606750963761</v>
       </c>
       <c r="D67">
-        <v>-0.0003342918476459073</v>
+        <v>0.00789856139293142</v>
       </c>
       <c r="E67">
-        <v>0.01413185164208089</v>
+        <v>0.009618625557530087</v>
       </c>
       <c r="F67">
-        <v>-0.03765504362170993</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01293914728358432</v>
+      </c>
+      <c r="G67">
+        <v>-0.02027737963332615</v>
+      </c>
+      <c r="H67">
+        <v>-0.003854930033542743</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07921692098490103</v>
+        <v>-0.1622622214004536</v>
       </c>
       <c r="C68">
-        <v>-0.03839385488065121</v>
+        <v>-0.2376703718002411</v>
       </c>
       <c r="D68">
-        <v>0.2227912569839527</v>
+        <v>0.002097611310095274</v>
       </c>
       <c r="E68">
-        <v>0.03907717408950555</v>
+        <v>-0.01655534791125507</v>
       </c>
       <c r="F68">
-        <v>0.002929117533569909</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01894585825841716</v>
+      </c>
+      <c r="G68">
+        <v>-0.016659356097755</v>
+      </c>
+      <c r="H68">
+        <v>0.02505950411790823</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05619133622036912</v>
+        <v>-0.06034804364595396</v>
       </c>
       <c r="C69">
-        <v>-0.004606618255337238</v>
+        <v>0.05164106107552403</v>
       </c>
       <c r="D69">
-        <v>-0.02866993045702296</v>
+        <v>0.0107660248366704</v>
       </c>
       <c r="E69">
-        <v>-0.02729138006827489</v>
+        <v>0.0286610661776759</v>
       </c>
       <c r="F69">
-        <v>-0.01429950557143082</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02130767936743232</v>
+      </c>
+      <c r="G69">
+        <v>-0.01470256397885899</v>
+      </c>
+      <c r="H69">
+        <v>-0.008917635911475682</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07402113588338186</v>
+        <v>-0.1508950943420023</v>
       </c>
       <c r="C71">
-        <v>-0.02484231690700554</v>
+        <v>-0.2033342243723858</v>
       </c>
       <c r="D71">
-        <v>0.2157721301314243</v>
+        <v>0.009551336978537342</v>
       </c>
       <c r="E71">
-        <v>0.0741912341211098</v>
+        <v>-0.02801133115625428</v>
       </c>
       <c r="F71">
-        <v>0.02896450296297291</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02390038961750497</v>
+      </c>
+      <c r="G71">
+        <v>-0.02500698732202892</v>
+      </c>
+      <c r="H71">
+        <v>0.04240335581819089</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1106559822129081</v>
+        <v>-0.0745920145090945</v>
       </c>
       <c r="C72">
-        <v>-0.003657823233172829</v>
+        <v>0.09054750746855167</v>
       </c>
       <c r="D72">
-        <v>-0.09962450722506712</v>
+        <v>0.01222314697808382</v>
       </c>
       <c r="E72">
-        <v>-0.0008874451197810448</v>
+        <v>0.02589313039432737</v>
       </c>
       <c r="F72">
-        <v>-0.1559501348005021</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04208840166458397</v>
+      </c>
+      <c r="G72">
+        <v>-0.003307843790403425</v>
+      </c>
+      <c r="H72">
+        <v>-0.03047305514382906</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2400647929279755</v>
+        <v>-0.3951667863574248</v>
       </c>
       <c r="C73">
-        <v>-0.1077856925747256</v>
+        <v>0.1710361226110741</v>
       </c>
       <c r="D73">
-        <v>-0.001485986527338265</v>
+        <v>-0.003128278617080535</v>
       </c>
       <c r="E73">
-        <v>0.1632847102442432</v>
+        <v>-0.01070991077062801</v>
       </c>
       <c r="F73">
-        <v>-0.08789093152828713</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.4978322774159649</v>
+      </c>
+      <c r="G73">
+        <v>0.1336593470867992</v>
+      </c>
+      <c r="H73">
+        <v>0.07723975379578878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1350872960006504</v>
+        <v>-0.1020154494581281</v>
       </c>
       <c r="C74">
-        <v>-0.01118943113852026</v>
+        <v>0.1197174393219363</v>
       </c>
       <c r="D74">
-        <v>-0.06640097030667258</v>
+        <v>0.01259639443053587</v>
       </c>
       <c r="E74">
-        <v>-0.080386753679029</v>
+        <v>0.042416959255235</v>
       </c>
       <c r="F74">
-        <v>0.02196865420810556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08077038799576182</v>
+      </c>
+      <c r="G74">
+        <v>-0.02003582940811446</v>
+      </c>
+      <c r="H74">
+        <v>-0.01055781883875079</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2739870173936784</v>
+        <v>-0.2345529498273378</v>
       </c>
       <c r="C75">
-        <v>-0.03060145860432678</v>
+        <v>0.1791567657923199</v>
       </c>
       <c r="D75">
-        <v>-0.09119155111947549</v>
+        <v>0.03339265209080335</v>
       </c>
       <c r="E75">
-        <v>-0.1673045972232544</v>
+        <v>0.05962818631470421</v>
       </c>
       <c r="F75">
-        <v>0.006559869655380748</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2254912839331617</v>
+      </c>
+      <c r="G75">
+        <v>-0.006467129349778843</v>
+      </c>
+      <c r="H75">
+        <v>-0.06859525097117815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2724954996004719</v>
+        <v>-0.1431487060104092</v>
       </c>
       <c r="C76">
-        <v>-0.01108727925362819</v>
+        <v>0.1450877041490277</v>
       </c>
       <c r="D76">
-        <v>-0.1061221994788263</v>
+        <v>0.02634515596578602</v>
       </c>
       <c r="E76">
-        <v>-0.2131215098490399</v>
+        <v>0.0711769864996567</v>
       </c>
       <c r="F76">
-        <v>0.06141666633226982</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1708156671021546</v>
+      </c>
+      <c r="G76">
+        <v>-0.0256499147687346</v>
+      </c>
+      <c r="H76">
+        <v>-0.04077380768743999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0710753880638349</v>
+        <v>-0.04638471864429883</v>
       </c>
       <c r="C77">
-        <v>-0.0105299771583924</v>
+        <v>0.0695974933908324</v>
       </c>
       <c r="D77">
-        <v>-0.07307258723152375</v>
+        <v>-0.01267263803988579</v>
       </c>
       <c r="E77">
-        <v>0.1118714469967726</v>
+        <v>-0.03261691390338347</v>
       </c>
       <c r="F77">
-        <v>-0.007902323913909472</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.003905370153820743</v>
+      </c>
+      <c r="G77">
+        <v>-0.01961480678207997</v>
+      </c>
+      <c r="H77">
+        <v>0.03309321797331681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03532606072314479</v>
+        <v>-0.03408101232230205</v>
       </c>
       <c r="C78">
-        <v>0.005889499409417235</v>
+        <v>0.05727208824955157</v>
       </c>
       <c r="D78">
-        <v>-0.05154782632893259</v>
+        <v>-0.004582305588013149</v>
       </c>
       <c r="E78">
-        <v>0.03268298983118956</v>
+        <v>-0.0145778685768126</v>
       </c>
       <c r="F78">
-        <v>-0.06511309145985383</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05324700856384607</v>
+      </c>
+      <c r="G78">
+        <v>-0.01609723658378235</v>
+      </c>
+      <c r="H78">
+        <v>0.004754872979132766</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2404380829582555</v>
+        <v>-0.05766461308761842</v>
       </c>
       <c r="C80">
-        <v>0.9392037253016177</v>
+        <v>0.09064289456400317</v>
       </c>
       <c r="D80">
-        <v>0.08060106025605518</v>
+        <v>-0.01128645842091647</v>
       </c>
       <c r="E80">
-        <v>0.1535633122928902</v>
+        <v>0.07222295471882496</v>
       </c>
       <c r="F80">
-        <v>0.03784560860076282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01468009398958708</v>
+      </c>
+      <c r="G80">
+        <v>-0.84820992759289</v>
+      </c>
+      <c r="H80">
+        <v>0.432162817361231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2142712376668865</v>
+        <v>-0.1393413563049104</v>
       </c>
       <c r="C81">
-        <v>-0.01448426332499748</v>
+        <v>0.1060405800158619</v>
       </c>
       <c r="D81">
-        <v>-0.06358247680990749</v>
+        <v>0.01987022858586253</v>
       </c>
       <c r="E81">
-        <v>-0.1371990898831011</v>
+        <v>0.03827163381294374</v>
       </c>
       <c r="F81">
-        <v>-0.0178961097384039</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1455542649160518</v>
+      </c>
+      <c r="G81">
+        <v>-0.02521359375316039</v>
+      </c>
+      <c r="H81">
+        <v>-0.03270299528335127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.02732360072329612</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.01972085797808988</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002316145653507372</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01802936688615112</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.00819199490199524</v>
+      </c>
+      <c r="G82">
+        <v>-0.001261635196818305</v>
+      </c>
+      <c r="H82">
+        <v>-0.007194854362816799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03233515906626378</v>
+        <v>-0.02307900454790039</v>
       </c>
       <c r="C83">
-        <v>-0.007355136384219038</v>
+        <v>0.01906524635518734</v>
       </c>
       <c r="D83">
-        <v>-0.007368190526502562</v>
+        <v>-0.004512233971774599</v>
       </c>
       <c r="E83">
-        <v>0.03815079897260585</v>
+        <v>-0.02077911969313575</v>
       </c>
       <c r="F83">
-        <v>-0.03450196916326177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.03226683488239645</v>
+      </c>
+      <c r="G83">
+        <v>-0.0203527913784752</v>
+      </c>
+      <c r="H83">
+        <v>0.008051521361890595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2593370545859394</v>
+        <v>-0.2212677755382446</v>
       </c>
       <c r="C85">
-        <v>-0.03978658308823212</v>
+        <v>0.1941277345993022</v>
       </c>
       <c r="D85">
-        <v>-0.1100269050493463</v>
+        <v>0.021821646718259</v>
       </c>
       <c r="E85">
-        <v>-0.188452033555886</v>
+        <v>0.09757943175712233</v>
       </c>
       <c r="F85">
-        <v>0.03577654783011814</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2278182559185356</v>
+      </c>
+      <c r="G85">
+        <v>0.03660280331857806</v>
+      </c>
+      <c r="H85">
+        <v>-0.09019361525411852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006579255462363324</v>
+        <v>-0.005216596490875469</v>
       </c>
       <c r="C86">
-        <v>0.009189599682710988</v>
+        <v>0.02929425414976441</v>
       </c>
       <c r="D86">
-        <v>-0.03654286752446329</v>
+        <v>-0.009149819253939158</v>
       </c>
       <c r="E86">
-        <v>0.03587643950563341</v>
+        <v>-0.009459098203458506</v>
       </c>
       <c r="F86">
-        <v>-0.06111719026293579</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02772734100493163</v>
+      </c>
+      <c r="G86">
+        <v>-0.03645563668027126</v>
+      </c>
+      <c r="H86">
+        <v>0.04016723685606458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0289852090935701</v>
+        <v>-0.01043121762341045</v>
       </c>
       <c r="C87">
-        <v>0.006352758289076194</v>
+        <v>0.02461726036571801</v>
       </c>
       <c r="D87">
-        <v>-0.02862888329431253</v>
+        <v>-0.01041987180727791</v>
       </c>
       <c r="E87">
-        <v>0.06858036807618603</v>
+        <v>-0.07254114933850539</v>
       </c>
       <c r="F87">
-        <v>-0.08451938843340412</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.08129812377062676</v>
+      </c>
+      <c r="G87">
+        <v>-0.02412929386958079</v>
+      </c>
+      <c r="H87">
+        <v>0.03039303930949421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04147371904900485</v>
+        <v>-0.06829542760326279</v>
       </c>
       <c r="C88">
-        <v>-0.008384292749456922</v>
+        <v>0.04048208101154693</v>
       </c>
       <c r="D88">
-        <v>0.002451487758724386</v>
+        <v>-0.01912726674050245</v>
       </c>
       <c r="E88">
-        <v>-0.002605898892609287</v>
+        <v>0.0137224876427533</v>
       </c>
       <c r="F88">
-        <v>0.004681831222037004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02387801985858184</v>
+      </c>
+      <c r="G88">
+        <v>-0.01339099435789328</v>
+      </c>
+      <c r="H88">
+        <v>-0.007998567462090437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.139291104507804</v>
+        <v>-0.258158472920523</v>
       </c>
       <c r="C89">
-        <v>-0.07529253853226882</v>
+        <v>-0.3512169689569246</v>
       </c>
       <c r="D89">
-        <v>0.3800829453117361</v>
+        <v>0.01452425326659052</v>
       </c>
       <c r="E89">
-        <v>0.02201932801961343</v>
+        <v>-0.006198087329522226</v>
       </c>
       <c r="F89">
-        <v>-0.02443377333986576</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02011771027905414</v>
+      </c>
+      <c r="G89">
+        <v>-0.01728442784130767</v>
+      </c>
+      <c r="H89">
+        <v>0.005831116624632351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07548283820001431</v>
+        <v>-0.2131968711835239</v>
       </c>
       <c r="C90">
-        <v>-0.06710095931464009</v>
+        <v>-0.3209411681299662</v>
       </c>
       <c r="D90">
-        <v>0.341503369779812</v>
+        <v>0.01540708384775067</v>
       </c>
       <c r="E90">
-        <v>0.005346609309254817</v>
+        <v>-0.0156883564925327</v>
       </c>
       <c r="F90">
-        <v>0.02770804667865455</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04336401100311643</v>
+      </c>
+      <c r="G90">
+        <v>0.001469561997976403</v>
+      </c>
+      <c r="H90">
+        <v>0.003289230961379763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2956912982357425</v>
+        <v>-0.1963749736926259</v>
       </c>
       <c r="C91">
-        <v>-0.03910795229178878</v>
+        <v>0.1433267353621244</v>
       </c>
       <c r="D91">
-        <v>-0.1260101365504093</v>
+        <v>0.0290927825804724</v>
       </c>
       <c r="E91">
-        <v>-0.2127265668858676</v>
+        <v>0.07660897637462824</v>
       </c>
       <c r="F91">
-        <v>0.1115617401705102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.212903126400829</v>
+      </c>
+      <c r="G91">
+        <v>-0.006084099207169069</v>
+      </c>
+      <c r="H91">
+        <v>-0.04552107898901022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2163484508650032</v>
+        <v>-0.2357245024860462</v>
       </c>
       <c r="C92">
-        <v>-0.08372293025082465</v>
+        <v>-0.2488731252669437</v>
       </c>
       <c r="D92">
-        <v>0.3783951738292967</v>
+        <v>0.05734326593610669</v>
       </c>
       <c r="E92">
-        <v>-0.07069436295505384</v>
+        <v>-0.02658603702141327</v>
       </c>
       <c r="F92">
-        <v>0.01709693775957409</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1328999633006072</v>
+      </c>
+      <c r="G92">
+        <v>-0.0587031254383483</v>
+      </c>
+      <c r="H92">
+        <v>-0.01685728116561997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1297193810496726</v>
+        <v>-0.2449405186776378</v>
       </c>
       <c r="C93">
-        <v>-0.09657433183834527</v>
+        <v>-0.3093386910602524</v>
       </c>
       <c r="D93">
-        <v>0.3927159570638942</v>
+        <v>0.0228049911295552</v>
       </c>
       <c r="E93">
-        <v>0.05114046595411902</v>
+        <v>-0.0261529777868602</v>
       </c>
       <c r="F93">
-        <v>0.06867048936871557</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01850297905745863</v>
+      </c>
+      <c r="G93">
+        <v>0.01507312424340659</v>
+      </c>
+      <c r="H93">
+        <v>0.03506680139278547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3308673211287272</v>
+        <v>-0.2538336843936542</v>
       </c>
       <c r="C94">
-        <v>-0.07372549741076051</v>
+        <v>0.1694105164809337</v>
       </c>
       <c r="D94">
-        <v>-0.0803402397590731</v>
+        <v>0.01738922072863173</v>
       </c>
       <c r="E94">
-        <v>-0.2308712929149306</v>
+        <v>0.08499383036538184</v>
       </c>
       <c r="F94">
-        <v>-0.006482303627904208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3455364136330357</v>
+      </c>
+      <c r="G94">
+        <v>0.04245684726719563</v>
+      </c>
+      <c r="H94">
+        <v>-0.2489040171739495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06183116697654926</v>
+        <v>-0.06869272403568123</v>
       </c>
       <c r="C95">
-        <v>-0.07223895491327521</v>
+        <v>0.1096661197642403</v>
       </c>
       <c r="D95">
-        <v>-0.0319855412195036</v>
+        <v>0.009001101961198381</v>
       </c>
       <c r="E95">
-        <v>-0.03746486853143964</v>
+        <v>-0.05613223575461594</v>
       </c>
       <c r="F95">
-        <v>-0.07744251348079621</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1349331242675923</v>
+      </c>
+      <c r="G95">
+        <v>0.06492996655021746</v>
+      </c>
+      <c r="H95">
+        <v>-0.02190203330468754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1909034506406491</v>
+        <v>-0.2152871680339956</v>
       </c>
       <c r="C98">
-        <v>-0.06670859010252399</v>
+        <v>0.0673034744393836</v>
       </c>
       <c r="D98">
-        <v>0.0350815871757439</v>
+        <v>0.02473540411949468</v>
       </c>
       <c r="E98">
-        <v>0.1533675393355876</v>
+        <v>-0.04014020295038304</v>
       </c>
       <c r="F98">
-        <v>-0.1065431648564436</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2499441328511472</v>
+      </c>
+      <c r="G98">
+        <v>0.06639264208053448</v>
+      </c>
+      <c r="H98">
+        <v>0.07562626242610665</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003838267942301333</v>
+        <v>-0.003496115607616554</v>
       </c>
       <c r="C101">
-        <v>0.00518266651269243</v>
+        <v>0.0186080743842962</v>
       </c>
       <c r="D101">
-        <v>-0.02767293137589868</v>
+        <v>-0.007396386282011069</v>
       </c>
       <c r="E101">
-        <v>0.07690510300639734</v>
+        <v>-0.03053605762438511</v>
       </c>
       <c r="F101">
-        <v>-0.1846854474069271</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.009515516109090251</v>
+      </c>
+      <c r="G101">
+        <v>-0.03954079792417892</v>
+      </c>
+      <c r="H101">
+        <v>-0.02574162292903379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1442385266438951</v>
+        <v>-0.1150734087086784</v>
       </c>
       <c r="C102">
-        <v>-0.01680011382660184</v>
+        <v>0.08960733635419904</v>
       </c>
       <c r="D102">
-        <v>-0.04596116465781274</v>
+        <v>0.002405028067733962</v>
       </c>
       <c r="E102">
-        <v>-0.09329853697821665</v>
+        <v>0.04887068784981834</v>
       </c>
       <c r="F102">
-        <v>0.05236437283909325</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.07795035537577742</v>
+      </c>
+      <c r="G102">
+        <v>0.00558580759132012</v>
+      </c>
+      <c r="H102">
+        <v>-0.01621393636272915</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04082753971150527</v>
+        <v>-0.007392477455506166</v>
       </c>
       <c r="C103">
-        <v>0.01375590972758196</v>
+        <v>0.008114541954294936</v>
       </c>
       <c r="D103">
-        <v>-0.01654752221740066</v>
+        <v>0.0001082052297944544</v>
       </c>
       <c r="E103">
-        <v>-0.01966225902932355</v>
+        <v>0.001620519680942484</v>
       </c>
       <c r="F103">
-        <v>-0.002992204241407161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01403366211245125</v>
+      </c>
+      <c r="G103">
+        <v>-0.01637264983263615</v>
+      </c>
+      <c r="H103">
+        <v>0.005067977122640186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.06240120189720686</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.0444711779085832</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.983891435482298</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04060467395436279</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.01818127244280655</v>
+      </c>
+      <c r="G104">
+        <v>-0.03582208248033686</v>
+      </c>
+      <c r="H104">
+        <v>-0.1126770251381471</v>
       </c>
     </row>
   </sheetData>
